--- a/data/trans_camb/P28A_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P28A_1_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-26,78</t>
+          <t>-27,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-26,07</t>
+          <t>-27,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-35,85</t>
+          <t>-36,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-31,66</t>
+          <t>-24,29</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-24,32</t>
+          <t>-24,64</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-22,2</t>
+          <t>-34,12</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-33,48</t>
+          <t>-25,93</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-26,93</t>
+          <t>-26,24</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-25,51</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-24,07</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-34,62</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-29,24</t>
+          <t>-35,04</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-32,6; -20,25</t>
+          <t>-33,26; -21,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-31,5; -20,46</t>
+          <t>-33,29; -21,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-41,99; -29,67</t>
+          <t>-41,68; -29,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-37,2; -26,39</t>
+          <t>-29,28; -19,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-29,21; -19,02</t>
+          <t>-29,54; -20,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,94; -17,2</t>
+          <t>-38,34; -29,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-38,52; -27,48</t>
+          <t>-29,59; -22,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,52; -21,84</t>
+          <t>-29,75; -22,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-29,47; -21,18</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-27,59; -20,05</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-38,41; -29,95</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-32,52; -25,43</t>
+          <t>-38,75; -31,33</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-46,39%</t>
+          <t>-48,84%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-45,15%</t>
+          <t>-49,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-62,09%</t>
+          <t>-63,49%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-54,83%</t>
+          <t>-44,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-43,63%</t>
+          <t>-45,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-39,82%</t>
+          <t>-63,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-60,06%</t>
+          <t>-46,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-48,3%</t>
+          <t>-47,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-44,98%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-42,45%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-61,05%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-51,56%</t>
+          <t>-63,29%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-54,83; -36,09</t>
+          <t>-56,12; -39,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-52,79; -36,81</t>
+          <t>-55,83; -39,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-69,54; -52,3</t>
+          <t>-70,47; -53,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-61,19; -48,02</t>
+          <t>-51,85; -36,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,73; -35,69</t>
+          <t>-52,31; -39,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,73; -32,0</t>
+          <t>-68,1; -55,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-66,5; -49,85</t>
+          <t>-52,04; -41,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-54,78; -40,6</t>
+          <t>-51,8; -41,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-50,41; -38,41</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-47,66; -36,62</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-65,79; -53,76</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-55,77; -46,05</t>
+          <t>-67,99; -57,69</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-21,36</t>
+          <t>-20,58</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-20,97</t>
+          <t>-22,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-30,17</t>
+          <t>-30,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-22,7</t>
+          <t>-27,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-26,92</t>
+          <t>-24,62</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-21,38</t>
+          <t>-34,91</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-35,18</t>
+          <t>-23,92</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-23,75</t>
+          <t>-23,5</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-24,14</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-21,28</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-32,69</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-23,37</t>
+          <t>-32,67</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-28,46; -14,2</t>
+          <t>-27,15; -12,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-27,4; -13,65</t>
+          <t>-28,8; -16,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-36,56; -24,23</t>
+          <t>-36,42; -23,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,1; -14,98</t>
+          <t>-33,23; -21,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,69; -20,72</t>
+          <t>-30,93; -18,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,53; -15,33</t>
+          <t>-40,62; -29,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-40,18; -29,72</t>
+          <t>-28,08; -19,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-31,19; -15,71</t>
+          <t>-28,04; -19,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-28,47; -19,12</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-25,09; -16,7</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-36,43; -28,4</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-28,59; -17,8</t>
+          <t>-36,73; -28,54</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-43,37%</t>
+          <t>-42,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-42,58%</t>
+          <t>-46,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-61,28%</t>
+          <t>-62,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-46,11%</t>
+          <t>-50,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-48,51%</t>
+          <t>-45,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-38,52%</t>
+          <t>-64,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-63,38%</t>
+          <t>-46,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-42,79%</t>
+          <t>-45,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-46,1%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-40,64%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-62,41%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-44,62%</t>
+          <t>-63,74%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-54,6; -30,19</t>
+          <t>-53,18; -27,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-52,85; -29,59</t>
+          <t>-56,01; -35,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-69,91; -51,6</t>
+          <t>-70,66; -52,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,15; -31,55</t>
+          <t>-58,44; -41,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,49; -39,2</t>
+          <t>-53,42; -36,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,1; -29,21</t>
+          <t>-71,23; -57,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-69,19; -56,23</t>
+          <t>-53,09; -38,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,19; -29,73</t>
+          <t>-52,24; -39,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-52,94; -37,65</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-46,94; -33,47</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-67,38; -56,04</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-53,3; -34,8</t>
+          <t>-68,54; -57,61</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-30,42</t>
+          <t>-31,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-33,36</t>
+          <t>-34,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-32,66</t>
+          <t>-32,35</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-13,97</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-13,52</t>
+          <t>-22,43</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-20,51</t>
+          <t>-26,24</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-26,1</t>
+          <t>-22,76</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-28,55</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-22,14</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-27,15</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-29,46</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
+          <t>-29,33</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-42,96; -16,9</t>
+          <t>-43,39; -17,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-46,28; -20,68</t>
+          <t>-47,46; -23,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-45,65; -18,72</t>
+          <t>-44,73; -16,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,71; -2,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,34; -0,73</t>
+          <t>-32,39; -11,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-30,64; -10,12</t>
+          <t>-35,54; -16,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-37,02; -16,31</t>
+          <t>-31,1; -14,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,39; -20,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-31,48; -12,89</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-36,22; -18,99</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-37,83; -19,55</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-37,14; -20,01</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-55,27%</t>
+          <t>-57,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-60,63%</t>
+          <t>-63,38%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-59,34%</t>
+          <t>-59,45%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-28,58%</t>
+          <t>-48,86%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-43,36%</t>
+          <t>-57,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-55,18%</t>
+          <t>-45,33%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-43,21%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-52,98%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-57,48%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>-58,42%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-70,59; -35,0</t>
+          <t>-72,7; -36,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-74,86; -43,21</t>
+          <t>-76,14; -47,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-74,35; -33,64</t>
+          <t>-73,84; -30,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,94; -7,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,52; -1,81</t>
+          <t>-62,92; -28,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-58,51; -22,4</t>
+          <t>-69,62; -41,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-69,12; -37,7</t>
+          <t>-57,01; -30,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,61; -44,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-56,53; -27,07</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-64,62; -39,47</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-68,75; -41,29</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-69,05; -42,33</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-25,01</t>
+          <t>-25,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-24,89</t>
+          <t>-26,5</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-33,17</t>
+          <t>-33,3</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-27,8</t>
+          <t>-24,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-24,1</t>
+          <t>-24,36</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-21,67</t>
+          <t>-33,52</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-33,28</t>
+          <t>-24,75</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-25,24</t>
+          <t>-25,41</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-24,55</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>-23,3</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-33,23</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>-26,53</t>
+          <t>-33,41</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-29,33; -19,78</t>
+          <t>-29,52; -20,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-29,3; -20,87</t>
+          <t>-30,35; -21,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-36,91; -28,03</t>
+          <t>-37,36; -28,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-31,84; -23,13</t>
+          <t>-28,06; -20,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-27,89; -20,7</t>
+          <t>-27,91; -20,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-25,24; -18,04</t>
+          <t>-36,98; -30,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-36,89; -29,26</t>
+          <t>-27,6; -22,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-29,24; -21,11</t>
+          <t>-27,95; -22,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-27,22; -21,5</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-25,98; -20,62</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>-35,86; -30,34</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>-29,37; -23,52</t>
+          <t>-36,08; -30,92</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-46,33%</t>
+          <t>-47,56%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-46,11%</t>
+          <t>-49,84%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-61,44%</t>
+          <t>-62,64%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-51,49%</t>
+          <t>-45,66%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-44,07%</t>
+          <t>-45,9%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-39,62%</t>
+          <t>-63,15%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-60,86%</t>
+          <t>-46,59%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-46,15%</t>
+          <t>-47,83%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-45,18%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>-42,87%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-61,14%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-48,82%</t>
+          <t>-62,9%</t>
         </is>
       </c>
     </row>
@@ -1688,74 +1439,66 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-52,85; -38,12</t>
+          <t>-53,54; -40,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-52,3; -39,66</t>
+          <t>-55,27; -42,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-66,78; -53,71</t>
+          <t>-68,02; -56,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-57,36; -44,29</t>
+          <t>-51,34; -39,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-49,72; -39,08</t>
+          <t>-50,95; -40,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,96; -34,02</t>
+          <t>-67,47; -58,68</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-65,07; -53,92</t>
+          <t>-50,79; -42,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-52,07; -39,52</t>
+          <t>-51,35; -44,13</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-49,02; -40,39</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-46,74; -38,71</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-64,66; -56,74</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>-52,86; -44,05</t>
+          <t>-66,43; -59,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
